--- a/要件、設計.xlsx
+++ b/要件、設計.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frontier-Python\Desktop\製作物\料理レシピ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frontier-Python\Desktop\Django\RecipeProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D5D90D-1DA0-4AA6-9B9F-5EB492170D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88E3249-82EB-4621-9667-0409B655B182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{71928E78-3A24-4604-82A5-23F5281697AB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{71928E78-3A24-4604-82A5-23F5281697AB}"/>
   </bookViews>
   <sheets>
     <sheet name="要件定義" sheetId="1" r:id="rId1"/>
     <sheet name="画面設計" sheetId="4" r:id="rId2"/>
-    <sheet name="フローチャート" sheetId="8" r:id="rId3"/>
-    <sheet name="DB一覧" sheetId="7" r:id="rId4"/>
-    <sheet name="製造の流れ" sheetId="5" r:id="rId5"/>
+    <sheet name="DB一覧" sheetId="7" r:id="rId3"/>
+    <sheet name="製造の流れ" sheetId="5" r:id="rId4"/>
+    <sheet name="フローチャート" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="82">
   <si>
     <t>目的</t>
     <rPh sb="0" eb="2">
@@ -398,33 +398,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レシピ作成者管理</t>
-    <rPh sb="3" eb="6">
-      <t>サクセイシャ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成者名</t>
-    <rPh sb="0" eb="3">
-      <t>サクセイシャ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レシピ画像パス</t>
-    <rPh sb="3" eb="5">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DB作成</t>
     <rPh sb="2" eb="4">
       <t>サクセイ</t>
@@ -438,13 +411,6 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レシピ詳細</t>
-    <rPh sb="3" eb="5">
-      <t>ショウサイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -751,6 +717,105 @@
     <t>新規登録</t>
     <rPh sb="0" eb="4">
       <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レシピURL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レシピ画像名</t>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食数</t>
+    <rPh sb="0" eb="2">
+      <t>ショクスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作り方管理</t>
+    <rPh sb="0" eb="1">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>順番</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者名管理</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイシャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者名</t>
+    <rPh sb="0" eb="4">
+      <t>サクセイシャメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>料理区分管理</t>
+    <rPh sb="0" eb="4">
+      <t>リョウリクブン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>料理区分</t>
+    <rPh sb="0" eb="4">
+      <t>リョウリクブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>料理分類名</t>
+    <rPh sb="0" eb="5">
+      <t>リョウリブンルイメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5385,6 +5450,1353 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="円柱 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34A17AE6-F91B-266F-8BF2-4BB8E870EF54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2781300" y="426720"/>
+          <a:ext cx="1722120" cy="1074420"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>ユーザー管理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>主キー：ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="円柱 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AA3BBB8-1CA0-43E2-B74C-98EEDA892B37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5501640" y="419100"/>
+          <a:ext cx="1699260" cy="1074420"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>お気に入り管理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>外部キー：ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="円柱 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{383B832A-7063-4F56-8387-B97890215209}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2788920" y="2202180"/>
+          <a:ext cx="1699260" cy="1074420"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>作成者名管理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>主キー：作成者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="円柱 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A35AFE5-5A92-4A10-B724-2EC06186D92E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5509260" y="2194560"/>
+          <a:ext cx="1699260" cy="1074420"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>レシピ管理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>主キー：レシピ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="円柱 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DA2A2D8-FBD2-4AAD-9DE2-DDC221051A7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8260080" y="3817620"/>
+          <a:ext cx="1699260" cy="1074420"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>材料管理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>外部キー：レシピ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="円柱 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B87A88CD-C940-4A55-B48C-8B651E8166D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8275320" y="2186940"/>
+          <a:ext cx="1699260" cy="1074420"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>作り方管理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>外部キー：レシピ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="円柱 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA3CA36A-3C40-4D45-9639-5A8F47F7B74B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5509260" y="3825240"/>
+          <a:ext cx="1699260" cy="1074420"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>食材名管理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>主キー：食材</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="円柱 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17106EAC-2B32-42B7-AEBD-43FB672D6043}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2773680" y="3825240"/>
+          <a:ext cx="1699260" cy="1074420"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>料理区分管理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>主キー：料理区分</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="コネクタ: カギ線 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4509168-8875-FFA4-769D-9820E6D9A09B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="4"/>
+          <a:endCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4503420" y="956310"/>
+          <a:ext cx="998220" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>217170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>224790</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="コネクタ: カギ線 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90442D5A-0074-4B48-9FC6-010C835C937C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="4"/>
+          <a:endCxn id="5" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4488180" y="2731770"/>
+          <a:ext cx="1021080" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>483870</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="コネクタ: カギ線 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7B698D6-F439-4570-9072-FB38467203E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="1"/>
+          <a:endCxn id="3" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6351270" y="1493520"/>
+          <a:ext cx="7620" cy="701040"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>217170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="コネクタ: カギ線 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D5DF86E-3272-4FF1-9591-DDAA6C30C144}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="5" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7208520" y="2731770"/>
+          <a:ext cx="1051560" cy="1623060"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>217170</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="コネクタ: カギ線 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{741BCEC0-644B-44A5-96DF-4EA8EF2CE23D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="5" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7208520" y="2724150"/>
+          <a:ext cx="1066800" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="コネクタ: カギ線 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{094009DB-1E47-415C-87B6-CECB4D5B6E26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="4"/>
+          <a:endCxn id="6" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7208520" y="4354830"/>
+          <a:ext cx="1051560" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>217170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="コネクタ: カギ線 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7B4E82D-398B-4BA7-906F-84B7F1AACEFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="4"/>
+          <a:endCxn id="5" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4472940" y="2731770"/>
+          <a:ext cx="1036320" cy="1630680"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="正方形/長方形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51DF19D2-8E90-8082-CE71-360572763955}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5204460" y="838200"/>
+          <a:ext cx="342900" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>N</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="正方形/長方形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DA38ACB-891B-4D78-BC54-51CD4F2A7EF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5204460" y="2621280"/>
+          <a:ext cx="342900" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>N</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B40BA59-BD14-43AE-85AC-174F9D8AAA75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7985760" y="4229100"/>
+          <a:ext cx="342900" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>N</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="正方形/長方形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3C01AC9-1122-4919-9954-4F2D972388D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8046720" y="2583180"/>
+          <a:ext cx="342900" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>N</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="正方形/長方形 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{752CE108-46C8-4625-AD48-8216F3542839}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6179820" y="1363980"/>
+          <a:ext cx="342900" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>N</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="正方形/長方形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE5AFD91-DB6C-404F-91BA-CEBA650DF890}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6179820" y="2072640"/>
+          <a:ext cx="342900" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>N</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6423,7 +7835,7 @@
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.45">
@@ -6531,8 +7943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43517B6E-BE7D-4F58-A2F9-460A68CF8EBC}">
   <dimension ref="B2:N139"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="L147" sqref="L147"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K155" sqref="K155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6558,22 +7970,22 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.45">
       <c r="K7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.45">
       <c r="K8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.45">
       <c r="K9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.45">
       <c r="K10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.45">
@@ -6593,27 +8005,27 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.45">
       <c r="K14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.45">
       <c r="K15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.45">
       <c r="N17" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.45">
       <c r="N18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.45">
@@ -6638,12 +8050,12 @@
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B111" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B139" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -6655,27 +8067,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2007B8DF-F698-42F5-ABFB-EF3D050184E1}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA34FD8-6299-4C0C-9D55-2ECDC0A60BF3}">
+  <dimension ref="B2:C42"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA34FD8-6299-4C0C-9D55-2ECDC0A60BF3}">
-  <dimension ref="B2:C31"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6706,57 +8102,52 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C14" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C15" t="s">
-        <v>49</v>
+      <c r="B15" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.45">
@@ -6766,56 +8157,108 @@
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C25" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B25" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C27" t="s">
-        <v>55</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B28" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B29" s="1" t="s">
-        <v>62</v>
+      <c r="C29" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B32" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C33" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B38" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C42" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29FD20E-DFDF-40BA-9461-9CA9221DDD27}">
   <dimension ref="B2:B15"/>
   <sheetViews>
@@ -6840,12 +8283,12 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.45">
@@ -6860,26 +8303,42 @@
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2007B8DF-F698-42F5-ABFB-EF3D050184E1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/要件、設計.xlsx
+++ b/要件、設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frontier-Python\Desktop\Django\RecipeProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88E3249-82EB-4621-9667-0409B655B182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF91D136-3E09-4A45-83DC-5018963D14D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{71928E78-3A24-4604-82A5-23F5281697AB}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="96">
   <si>
     <t>目的</t>
     <rPh sb="0" eb="2">
@@ -816,6 +816,83 @@
     <t>料理分類名</t>
     <rPh sb="0" eb="5">
       <t>リョウリブンルイメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>☆レシピ登録の順番</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジュンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　② Recipes（レシピ管理）</t>
+    <rPh sb="14" eb="16">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　① Authors（作成者名管理）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　③ Ingredient names（食材名管理）</t>
+    <rPh sb="20" eb="23">
+      <t>ショクザイメイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cooking categorys</t>
+  </si>
+  <si>
+    <t>Favorites</t>
+  </si>
+  <si>
+    <t>Ingredient names</t>
+  </si>
+  <si>
+    <t>Recipes</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Instruction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ingredientss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　④ Ingredientss（材料管理）</t>
+    <rPh sb="16" eb="20">
+      <t>ザイリョウカンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　⑤ Instruction（作り方管理）</t>
+    <rPh sb="15" eb="16">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -8068,7 +8145,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA34FD8-6299-4C0C-9D55-2ECDC0A60BF3}">
-  <dimension ref="B2:C42"/>
+  <dimension ref="B2:Q42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
@@ -8078,174 +8155,219 @@
   <cols>
     <col min="1" max="1" width="3.09765625" customWidth="1"/>
     <col min="2" max="2" width="3.59765625" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="Q3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="Q4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="Q5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="Q6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="Q8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C33" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C34" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C36" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="D38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C40" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C41" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C42" t="s">
         <v>48</v>
       </c>

--- a/要件、設計.xlsx
+++ b/要件、設計.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frontier-Python\Desktop\Django\RecipeProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF91D136-3E09-4A45-83DC-5018963D14D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C38FCEE-043C-4878-A8FB-E068A044FE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{71928E78-3A24-4604-82A5-23F5281697AB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{71928E78-3A24-4604-82A5-23F5281697AB}"/>
   </bookViews>
   <sheets>
     <sheet name="要件定義" sheetId="1" r:id="rId1"/>
     <sheet name="画面設計" sheetId="4" r:id="rId2"/>
-    <sheet name="DB一覧" sheetId="7" r:id="rId3"/>
-    <sheet name="製造の流れ" sheetId="5" r:id="rId4"/>
-    <sheet name="フローチャート" sheetId="8" r:id="rId5"/>
+    <sheet name="フローチャート" sheetId="8" r:id="rId3"/>
+    <sheet name="ER図" sheetId="10" r:id="rId4"/>
+    <sheet name="DB一覧" sheetId="9" r:id="rId5"/>
+    <sheet name="感想" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="108">
   <si>
     <t>目的</t>
     <rPh sb="0" eb="2">
@@ -49,13 +50,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　ごはんのレシピを提案するアプリ！</t>
-    <rPh sb="9" eb="11">
-      <t>テイアン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
@@ -73,129 +67,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　・python</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　・Django</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　・DB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　・スクレイピング</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面設計</t>
-    <rPh sb="0" eb="4">
-      <t>ガメンセッケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　・主菜タブ</t>
-    <rPh sb="2" eb="4">
-      <t>シュサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　・副菜タブ</t>
-    <rPh sb="2" eb="4">
-      <t>フクサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　・汁物タブ</t>
-    <rPh sb="2" eb="4">
-      <t>シルモノ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　・デザートタブ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「ホーム」</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　・今日のおすすめレシピ　主菜/副菜/汁物/デザート</t>
-    <rPh sb="2" eb="4">
-      <t>キョウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シュサイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>フクサイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シルモノ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　・レシピ検索リンク</t>
-    <rPh sb="5" eb="7">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　・食材入力リンク</t>
-    <rPh sb="2" eb="4">
-      <t>ショクザイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ホーム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「作り方」</t>
-    <rPh sb="1" eb="2">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　・完成画像</t>
-    <rPh sb="2" eb="4">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　・材料</t>
-    <rPh sb="2" eb="4">
-      <t>ザイリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　・作り方</t>
-    <rPh sb="2" eb="3">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カタ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -209,20 +81,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　・レシピを提案</t>
-    <rPh sb="6" eb="8">
-      <t>テイアン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「その他のレシピ」</t>
-    <rPh sb="3" eb="4">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>表示条件</t>
     <rPh sb="0" eb="2">
       <t>ヒョウジ</t>
@@ -276,92 +134,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　・日付が変わるとデータを更新（初期アクセス時）</t>
-    <rPh sb="2" eb="4">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　・30件取得（今日のおすすめ＋その他のレシピ×29）</t>
-    <rPh sb="4" eb="5">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キョウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モックアップ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　・HTMLで静的な画面を作成</t>
-    <rPh sb="7" eb="9">
-      <t>セイテキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スクレイピング機能</t>
-    <rPh sb="7" eb="9">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　・その他レシピ一覧画面を作成</t>
-    <rPh sb="4" eb="5">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザー管理</t>
-    <rPh sb="4" eb="6">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザ名</t>
     <rPh sb="3" eb="4">
       <t>メイ</t>
@@ -369,28 +141,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パスワード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レシピ管理</t>
-    <rPh sb="3" eb="5">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成者ID</t>
-    <rPh sb="0" eb="3">
-      <t>サクセイシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レシピID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>レシピ名</t>
     <rPh sb="3" eb="4">
       <t>メイ</t>
@@ -398,82 +148,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DB作成</t>
-    <rPh sb="2" eb="4">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　・DB一覧のテーブルを作成</t>
-    <rPh sb="4" eb="6">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>材料管理</t>
-    <rPh sb="0" eb="2">
-      <t>ザイリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>材料番号（表示時の並び順）</t>
-    <rPh sb="0" eb="2">
-      <t>ザイリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ナラ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ジュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>量</t>
-    <rPh sb="0" eb="1">
-      <t>リョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>食材ID</t>
-    <rPh sb="0" eb="2">
-      <t>ショクザイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>食材名管理</t>
-    <rPh sb="0" eb="2">
-      <t>ショクザイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>食材名</t>
     <rPh sb="0" eb="3">
       <t>ショクザイメイ</t>
@@ -481,25 +155,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>料理区分（主菜、副菜、汁物、デザート）</t>
-    <rPh sb="0" eb="2">
-      <t>リョウリ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>クブン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュサイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>フクサイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シルモノ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　・お気に入りで評価</t>
     <rPh sb="3" eb="4">
       <t>キ</t>
@@ -513,65 +168,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>作り方画面</t>
-    <rPh sb="0" eb="1">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　・作り方画面を作成</t>
-    <rPh sb="2" eb="3">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>おすすめレシピ画面</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　・おすすめレシピ画面を作成</t>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お気に入り管理</t>
-    <rPh sb="1" eb="2">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>お気に入りボタン</t>
     <rPh sb="1" eb="2">
       <t>キ</t>
@@ -663,53 +259,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　・お気に入りレシピを学習し、好みの料理を提案</t>
-    <rPh sb="3" eb="4">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>コノ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>リョウリ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>テイアン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　・過去1週間の履歴と被らない（レシピIDで判断）※レシピIDはレシピURLの数字（桁数はきまってない）</t>
-    <rPh sb="2" eb="4">
-      <t>カコ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュウカン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>リレキ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>カブ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ハンダン</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ケタスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログイン</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -721,10 +270,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レシピURL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>レシピ画像名</t>
     <rPh sb="3" eb="5">
       <t>ガゾウ</t>
@@ -742,19 +287,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>作り方管理</t>
-    <rPh sb="0" eb="1">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画像</t>
     <rPh sb="0" eb="2">
       <t>ガゾウ</t>
@@ -776,19 +308,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>作成者名管理</t>
-    <rPh sb="0" eb="3">
-      <t>サクセイシャ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>作成者名</t>
     <rPh sb="0" eb="4">
       <t>サクセイシャメイ</t>
@@ -796,33 +315,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>料理区分管理</t>
-    <rPh sb="0" eb="4">
-      <t>リョウリクブン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>料理区分</t>
-    <rPh sb="0" eb="4">
-      <t>リョウリクブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>料理分類名</t>
-    <rPh sb="0" eb="5">
-      <t>リョウリブンルイメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Authors</t>
-  </si>
-  <si>
     <t>☆レシピ登録の順番</t>
     <rPh sb="4" eb="6">
       <t>トウロク</t>
@@ -854,29 +346,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Cooking categorys</t>
-  </si>
-  <si>
-    <t>Favorites</t>
-  </si>
-  <si>
-    <t>Ingredient names</t>
-  </si>
-  <si>
-    <t>Recipes</t>
-  </si>
-  <si>
-    <t>Users</t>
-  </si>
-  <si>
-    <t>Instruction</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ingredientss</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　④ Ingredientss（材料管理）</t>
     <rPh sb="16" eb="20">
       <t>ザイリョウカンリ</t>
@@ -893,6 +362,523 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　⑥ Favorites（お気に入り管理）</t>
+    <rPh sb="14" eb="15">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お気に入りフラグ</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名</t>
+    <rPh sb="0" eb="3">
+      <t>コウモクメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ型</t>
+    <rPh sb="3" eb="4">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主キー</t>
+    <rPh sb="0" eb="1">
+      <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー管理（CustomUser）</t>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+  </si>
+  <si>
+    <t>文字列</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大値：150文字</t>
+    <rPh sb="0" eb="3">
+      <t>サイダイチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー（オブジェクト）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レシピ（オブジェクト）</t>
+  </si>
+  <si>
+    <t>レシピ（オブジェクト）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>料理区分名</t>
+    <rPh sb="0" eb="2">
+      <t>リョウリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者（オブジェクト）</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>料理区分（オブジェクト）</t>
+    <rPh sb="0" eb="2">
+      <t>リョウリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食材（オブジェクト）</t>
+    <rPh sb="0" eb="2">
+      <t>ショクザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大値：128文字</t>
+    <rPh sb="0" eb="3">
+      <t>サイダイチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お気に入り管理（Favorite）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー</t>
+  </si>
+  <si>
+    <t>レシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>真偽</t>
+    <rPh sb="0" eb="2">
+      <t>シンギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期値：偽</t>
+    <rPh sb="0" eb="3">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者名管理（Author）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>料理区分管理（CookingCategory）</t>
+    <rPh sb="0" eb="2">
+      <t>リョウリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レシピ管理（Recipe）</t>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レシピURL</t>
+  </si>
+  <si>
+    <t>作成者</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>料理区分</t>
+    <rPh sb="0" eb="2">
+      <t>リョウリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大値：200文字</t>
+    <rPh sb="0" eb="3">
+      <t>サイダイチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大値：300文字</t>
+    <rPh sb="0" eb="3">
+      <t>サイダイチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空白：許可、値なし：許可</t>
+  </si>
+  <si>
+    <t>空白：許可、値なし：許可</t>
+    <rPh sb="0" eb="2">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大値：200文字、空白：許可、値なし：許可</t>
+    <rPh sb="0" eb="3">
+      <t>サイダイチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明文</t>
+  </si>
+  <si>
+    <t>説明文</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食材名管理（IngredientName）</t>
+    <rPh sb="0" eb="2">
+      <t>ショクザイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作り方管理（Instruction）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>材料管理（Ingredients）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分量</t>
+    <rPh sb="0" eb="1">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食材</t>
+    <rPh sb="0" eb="2">
+      <t>ショクザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・30件取得</t>
+    <rPh sb="4" eb="5">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Python（3.11.3）</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>言語</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フレームワーク</t>
+  </si>
+  <si>
+    <t>Django（4.2.2）</t>
+  </si>
+  <si>
+    <t>Bootstrap（3.3.7）</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>SQLite（3.46.0）</t>
+  </si>
+  <si>
+    <t>ライブラリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>beautifulsoup4（4.12.3）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>numpy（2.0.1）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>requests（2.32.3）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お気に入りレシピを学習し、好みの料理を提案するアプリ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・お気に入り状況よりレシピを検索</t>
+  </si>
+  <si>
+    <t>・レシピ一覧表示（料理区分ごとにタブ、ページネーションを利用）</t>
+  </si>
+  <si>
+    <t>・作り方表示</t>
+  </si>
+  <si>
+    <t>・お気に入り登録／解除</t>
+  </si>
+  <si>
+    <t>・ログイン</t>
+  </si>
+  <si>
+    <t>・新規登録</t>
+  </si>
+  <si>
+    <t>感想</t>
+    <rPh sb="0" eb="2">
+      <t>カンソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　お気に入りボタンの制御、タブとページネーションの組み合わせではかなり苦戦した。</t>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>クセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　UIを意識してページの再読み込みが発生しないように制御したかったので、Ajax（非同期通信）技術を利用することが難しかった。</t>
+    <rPh sb="4" eb="6">
+      <t>イシキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サイヨ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>ヒドウキ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ムズカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　トライ＆エラーを繰り返すことで一つずつ問題点を解消していった。</t>
+    <rPh sb="9" eb="10">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　当アプリの肝である「おすすめレシピ表示」機能では学習のアルゴリズムを考えるところから初め、実装まで納得行く結果となり満足している。</t>
+    <rPh sb="1" eb="2">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キモ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ハジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -901,7 +887,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -927,21 +913,59 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -950,11 +974,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -980,14 +1016,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>335279</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1002,8 +1038,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="480060" y="31798260"/>
-          <a:ext cx="5463539" cy="4671060"/>
+          <a:off x="480060" y="31112460"/>
+          <a:ext cx="5463539" cy="4061460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5309,8 +5345,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>335279</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5326,7 +5362,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="480060" y="25435560"/>
-          <a:ext cx="5463539" cy="5905500"/>
+          <a:ext cx="5463539" cy="5181600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5372,8 +5408,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>130047</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5388,16 +5424,15 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect b="18652"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="746759" y="25747980"/>
-          <a:ext cx="4991608" cy="5311140"/>
+          <a:ext cx="4991608" cy="4320540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5483,14 +5518,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>675</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>580</xdr:rowOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5505,22 +5540,243 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect t="-1" b="22580"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="769620" y="32194500"/>
-          <a:ext cx="4839375" cy="4153480"/>
+          <a:off x="769620" y="31508700"/>
+          <a:ext cx="4839375" cy="3215640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="正方形/長方形 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52577012-BB1E-A8F0-1385-81156C5DC658}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="28719780"/>
+          <a:ext cx="2377440" cy="822960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>502919</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>130047</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="図 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBEE3764-71E9-48D7-9D8A-C855095F5892}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect t="71449"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="746759" y="28872180"/>
+          <a:ext cx="4991608" cy="1516380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>675</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>53920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="図 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C14D209-0BFA-49CC-B95C-D1F87BFD3887}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect t="54121"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="769620" y="33124140"/>
+          <a:ext cx="4839375" cy="1905580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="正方形/長方形 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D35543F3-14A8-4290-B1F4-37391B23B222}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4968240" y="25991820"/>
+          <a:ext cx="449580" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5530,23 +5786,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="円柱 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34A17AE6-F91B-266F-8BF2-4BB8E870EF54}"/>
+        <xdr:cNvPr id="77" name="円柱 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91DF9296-1474-47EA-B7F8-2A1DFAE2EAE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5554,8 +5810,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2781300" y="426720"/>
-          <a:ext cx="1722120" cy="1074420"/>
+          <a:off x="4930140" y="4145280"/>
+          <a:ext cx="1699260" cy="1074420"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst/>
@@ -5582,7 +5838,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-            <a:t>ユーザー管理</a:t>
+            <a:t>作り方管理</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
         </a:p>
@@ -5590,7 +5846,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>主キー：ユーザー</a:t>
+            <a:t>外部キー：レシピ</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -5604,23 +5860,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="円柱 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AA3BBB8-1CA0-43E2-B74C-98EEDA892B37}"/>
+        <xdr:cNvPr id="78" name="円柱 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D1122A2-324F-4BA9-8253-765AC81BD805}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5628,8 +5884,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5501640" y="419100"/>
-          <a:ext cx="1699260" cy="1074420"/>
+          <a:off x="5082540" y="4297680"/>
+          <a:ext cx="1699260" cy="1417320"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst/>
@@ -5653,24 +5909,18 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-            <a:t>お気に入り管理</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>外部キー：ユーザー</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>・材料管理</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>・食材名管理</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5678,1215 +5928,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>624840</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="円柱 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{383B832A-7063-4F56-8387-B97890215209}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2788920" y="2202180"/>
-          <a:ext cx="1699260" cy="1074420"/>
-        </a:xfrm>
-        <a:prstGeom prst="can">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-            <a:t>作成者名管理</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>主キー：作成者</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="円柱 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A35AFE5-5A92-4A10-B724-2EC06186D92E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5509260" y="2194560"/>
-          <a:ext cx="1699260" cy="1074420"/>
-        </a:xfrm>
-        <a:prstGeom prst="can">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-            <a:t>レシピ管理</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>主キー：レシピ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
+      <xdr:colOff>22860</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="円柱 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DA2A2D8-FBD2-4AAD-9DE2-DDC221051A7B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8260080" y="3817620"/>
-          <a:ext cx="1699260" cy="1074420"/>
-        </a:xfrm>
-        <a:prstGeom prst="can">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-            <a:t>材料管理</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>外部キー：レシピ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>9</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="円柱 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B87A88CD-C940-4A55-B48C-8B651E8166D3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8275320" y="2186940"/>
-          <a:ext cx="1699260" cy="1074420"/>
-        </a:xfrm>
-        <a:prstGeom prst="can">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-            <a:t>作り方管理</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>外部キー：レシピ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="円柱 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA3CA36A-3C40-4D45-9639-5A8F47F7B74B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5509260" y="3825240"/>
-          <a:ext cx="1699260" cy="1074420"/>
-        </a:xfrm>
-        <a:prstGeom prst="can">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-            <a:t>食材名管理</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>主キー：食材</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="円柱 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17106EAC-2B32-42B7-AEBD-43FB672D6043}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2773680" y="3825240"/>
-          <a:ext cx="1699260" cy="1074420"/>
-        </a:xfrm>
-        <a:prstGeom prst="can">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-            <a:t>料理区分管理</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>主キー：料理区分</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="コネクタ: カギ線 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4509168-8875-FFA4-769D-9820E6D9A09B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="4"/>
-          <a:endCxn id="3" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4503420" y="956310"/>
-          <a:ext cx="998220" cy="7620"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>624840</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>217170</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>224790</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="コネクタ: カギ線 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90442D5A-0074-4B48-9FC6-010C835C937C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="4"/>
-          <a:endCxn id="5" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4488180" y="2731770"/>
-          <a:ext cx="1021080" cy="7620"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>483870</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="コネクタ: カギ線 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7B698D6-F439-4570-9072-FB38467203E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="1"/>
-          <a:endCxn id="3" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6351270" y="1493520"/>
-          <a:ext cx="7620" cy="701040"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>217170</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="コネクタ: カギ線 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D5DF86E-3272-4FF1-9591-DDAA6C30C144}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="2"/>
-          <a:endCxn id="5" idx="4"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="7208520" y="2731770"/>
-          <a:ext cx="1051560" cy="1623060"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>217170</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="コネクタ: カギ線 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{741BCEC0-644B-44A5-96DF-4EA8EF2CE23D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="2"/>
-          <a:endCxn id="5" idx="4"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7208520" y="2724150"/>
-          <a:ext cx="1066800" cy="7620"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="コネクタ: カギ線 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{094009DB-1E47-415C-87B6-CECB4D5B6E26}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="4"/>
-          <a:endCxn id="6" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7208520" y="4354830"/>
-          <a:ext cx="1051560" cy="7620"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>217170</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="コネクタ: カギ線 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7B4E82D-398B-4BA7-906F-84B7F1AACEFC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="4"/>
-          <a:endCxn id="5" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4472940" y="2731770"/>
-          <a:ext cx="1036320" cy="1630680"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="正方形/長方形 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51DF19D2-8E90-8082-CE71-360572763955}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5204460" y="838200"/>
-          <a:ext cx="342900" cy="289560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
-            <a:t>N</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="正方形/長方形 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DA38ACB-891B-4D78-BC54-51CD4F2A7EF7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5204460" y="2621280"/>
-          <a:ext cx="342900" cy="289560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
-            <a:t>N</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="正方形/長方形 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B40BA59-BD14-43AE-85AC-174F9D8AAA75}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7985760" y="4229100"/>
-          <a:ext cx="342900" cy="289560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
-            <a:t>N</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="正方形/長方形 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3C01AC9-1122-4919-9954-4F2D972388D9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8046720" y="2583180"/>
-          <a:ext cx="342900" cy="289560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
-            <a:t>N</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="正方形/長方形 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{752CE108-46C8-4625-AD48-8216F3542839}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6179820" y="1363980"/>
-          <a:ext cx="342900" cy="289560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
-            <a:t>N</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="正方形/長方形 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE5AFD91-DB6C-404F-91BA-CEBA650DF890}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6179820" y="2072640"/>
-          <a:ext cx="342900" cy="289560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
-            <a:t>N</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -6901,8 +5952,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="762000" y="838200"/>
-          <a:ext cx="1310640" cy="1356360"/>
+          <a:off x="420425" y="2463910"/>
+          <a:ext cx="1318592" cy="1376239"/>
           <a:chOff x="944880" y="1127760"/>
           <a:chExt cx="1051560" cy="1074420"/>
         </a:xfrm>
@@ -7021,15 +6072,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -7045,8 +6096,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="838200" y="2667000"/>
-          <a:ext cx="1310640" cy="1356360"/>
+          <a:off x="2704437" y="2471530"/>
+          <a:ext cx="1317266" cy="1376239"/>
           <a:chOff x="944880" y="1127760"/>
           <a:chExt cx="1051560" cy="1074420"/>
         </a:xfrm>
@@ -7165,16 +6216,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -7189,8 +6240,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="853440" y="4457700"/>
-          <a:ext cx="1310640" cy="1356360"/>
+          <a:off x="4818159" y="2463910"/>
+          <a:ext cx="1318591" cy="1376239"/>
           <a:chOff x="944880" y="1127760"/>
           <a:chExt cx="1051560" cy="1074420"/>
         </a:xfrm>
@@ -7309,15 +6360,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>200228</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>192608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>200228</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7332,17 +6383,17 @@
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
           <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="7" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2072640" y="1343228"/>
-          <a:ext cx="76200" cy="1828800"/>
+          <a:off x="2217420" y="2935808"/>
+          <a:ext cx="960120" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 510000"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="82550">
@@ -7369,16 +6420,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>192608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>200228</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>162128</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7391,17 +6442,17 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="7" idx="3"/>
-          <a:endCxn id="10" idx="3"/>
+          <a:endCxn id="10" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2148840" y="3172028"/>
-          <a:ext cx="15240" cy="1790700"/>
+        <a:xfrm flipV="1">
+          <a:off x="4488180" y="2935808"/>
+          <a:ext cx="792480" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 2200000"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="82550">
@@ -7428,16 +6479,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>200228</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>162128</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>192608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>205308</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7455,12 +6506,14 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2072640" y="1343228"/>
-          <a:ext cx="91440" cy="3619500"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
+          <a:off x="2217420" y="2935808"/>
+          <a:ext cx="4373880" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector5">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 925000"/>
+            <a:gd name="adj1" fmla="val 12892"/>
+            <a:gd name="adj2" fmla="val -6436591"/>
+            <a:gd name="adj3" fmla="val 108188"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="82550">
@@ -7487,73 +6540,2773 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="テキスト ボックス 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07A066B7-2583-59D4-888C-20B9F0D01715}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="グループ化 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEAF1F9E-1675-49E5-8CC1-9F6645C6F4C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2560320" y="2956560"/>
-          <a:ext cx="670560" cy="289560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+          <a:off x="420425" y="300493"/>
+          <a:ext cx="1318592" cy="1376238"/>
+          <a:chOff x="944880" y="1127760"/>
+          <a:chExt cx="1051560" cy="1074420"/>
+        </a:xfrm>
         <a:solidFill>
-          <a:schemeClr val="accent6">
+          <a:schemeClr val="accent4">
             <a:lumMod val="20000"/>
             <a:lumOff val="80000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="二等辺三角形 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7507AFCA-6650-9A31-606F-17ABE4F48091}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1082040" y="1447800"/>
+            <a:ext cx="792480" cy="754380"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
             </a:schemeClr>
-          </a:solidFill>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="正方形/長方形 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13E604E2-EB8C-9B51-14B8-90F4C3ACC15E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="944880" y="1127760"/>
+            <a:ext cx="1051560" cy="800100"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ログイン</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="グループ化 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2FCBB5A-ADD1-49E2-B8B4-04C1B712C57F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2657392" y="292873"/>
+          <a:ext cx="1318591" cy="1376238"/>
+          <a:chOff x="944880" y="1127760"/>
+          <a:chExt cx="1051560" cy="1074420"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="二等辺三角形 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B724D53-5F78-C0E3-1917-B9C5EEBA5C95}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1082040" y="1447800"/>
+            <a:ext cx="792480" cy="754380"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="正方形/長方形 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEEB1081-5FF6-376D-E510-628B2D881795}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="944880" y="1127760"/>
+            <a:ext cx="1051560" cy="800100"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>新規登録</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="17" name="グループ化 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{632D555F-BBE9-41BD-97B9-C85D51B495EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="420425" y="4413968"/>
+          <a:ext cx="1318592" cy="1372925"/>
+          <a:chOff x="944880" y="1127760"/>
+          <a:chExt cx="1051560" cy="1074420"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="二等辺三角形 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0288C38-3F74-0F92-11F3-31A44C419099}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1082040" y="1447800"/>
+            <a:ext cx="792480" cy="754380"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="正方形/長方形 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47B6FBA2-0267-E618-6BC2-3B317AF0DB37}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="944880" y="1127760"/>
+            <a:ext cx="1051560" cy="800100"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>レシピ一覧の更新</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>108558</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDF4BB5C-C665-46DE-B492-2776498A39CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="3"/>
+          <a:endCxn id="2" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1292529" y="2151711"/>
+          <a:ext cx="548640" cy="9498"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="82550">
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>108788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>116408</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE68B9C8-18C6-4882-AF58-96B10B306095}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="3"/>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2217420" y="1023188"/>
+          <a:ext cx="914400" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="82550">
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>108558</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9506E770-6CAB-40C9-97FE-3B0A2C20A410}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="19" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1284909" y="4064331"/>
+          <a:ext cx="563880" cy="9498"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="82550">
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="円柱 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5959AE2-879A-4F91-8FA0-C946ACAA2DA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="2286000"/>
+          <a:ext cx="1699260" cy="1074420"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>リンク</a:t>
-          </a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>作り方管理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>外部キー：レシピ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="円柱 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96BBF058-B5FB-4E92-999A-15390A53C02C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5623560" y="670560"/>
+          <a:ext cx="1722120" cy="1074420"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>ユーザー管理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="正方形/長方形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44CDE5F0-A32B-EA85-C389-573CC2A74644}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="701040" y="2278380"/>
+          <a:ext cx="6438900" cy="1684020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="正方形/長方形 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE036DFE-57D1-473D-9BB2-51060BC8856D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="434340"/>
+          <a:ext cx="3909060" cy="1577340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="コネクタ: カギ線 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33F78450-7C5E-456C-8646-955B29D6A473}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="59" idx="3"/>
+          <a:endCxn id="57" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4671060" y="1207770"/>
+          <a:ext cx="952500" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="円柱 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EC9CCC1-344D-4C9C-B765-F2FFBD52A2ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7696200" y="2438400"/>
+          <a:ext cx="1699260" cy="1074420"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>作り方管理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>外部キー：レシピ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="円柱 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E370A405-00DB-4BF3-8586-3D06FAFBFFA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7848600" y="2590800"/>
+          <a:ext cx="1699260" cy="2880360"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>・お気に入り管理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>・レシピ管理</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>・作成者名管理</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>・材料管理</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>・作り方管理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>・食材名管理</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>・料理区分管理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="コネクタ: カギ線 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{275BA581-2DBD-41E7-9DB0-807D324070B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6880860" y="2823210"/>
+          <a:ext cx="647700" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="正方形/長方形 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F06CC906-3D5E-4393-8BC1-9B6F97339B4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="480060" y="4191000"/>
+          <a:ext cx="1684020" cy="1592580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="円柱 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C57FE1E-AD81-4925-B6DD-ACA7DB1F11A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3169920" y="4152900"/>
+          <a:ext cx="1699260" cy="1074420"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>作り方管理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>外部キー：レシピ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="円柱 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35228B28-158D-474E-80FC-9A7FFF10F078}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3322320" y="4305300"/>
+          <a:ext cx="1699260" cy="1417320"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>・お気に入り管理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>・レシピ管理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>・材料管理</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>・食材名管理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="コネクタ: カギ線 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D23C7928-546E-49B0-998A-82DEFE38A575}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2179320" y="4960620"/>
+          <a:ext cx="990600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="円柱 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30B43BF7-D741-4992-B07F-6FEA3DB97AF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2941320" y="426720"/>
+          <a:ext cx="1722120" cy="1074420"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>ユーザー管理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>主キー：ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="円柱 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6515844E-42B3-4B26-9E35-2A78BF232C58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5661660" y="419100"/>
+          <a:ext cx="1699260" cy="1074420"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>お気に入り管理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>外部キー：ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="円柱 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC7C1DC1-1D3E-47CF-A798-2B8CB7BD364B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2948940" y="2202180"/>
+          <a:ext cx="1699260" cy="1074420"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>作成者名管理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>主キー：作成者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="円柱 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{755BDD65-740B-42C5-B9D9-BC834DFBAEAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5669280" y="2194560"/>
+          <a:ext cx="1699260" cy="1074420"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>レシピ管理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>主キー：レシピ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="円柱 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B188A45-CF45-480F-8124-2A95928B0403}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8420100" y="3817620"/>
+          <a:ext cx="1699260" cy="1074420"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>材料管理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>外部キー：レシピ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="円柱 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{065F4451-2AAE-46EE-9DE7-224F24A12386}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8435340" y="2186940"/>
+          <a:ext cx="1699260" cy="1074420"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>作り方管理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>外部キー：レシピ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="円柱 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D3FDA9A-9FEC-4577-9736-EF3FEDFAD6EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5669280" y="3825240"/>
+          <a:ext cx="1699260" cy="1074420"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>食材名管理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>主キー：食材</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="円柱 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C17B3FE-36C7-4C79-9CAB-89A4C5DDD673}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2933700" y="3825240"/>
+          <a:ext cx="1699260" cy="1074420"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>料理区分管理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>主キー：料理区分</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="コネクタ: カギ線 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A327B28B-48D6-45AE-A8F4-2975D663FC4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="4"/>
+          <a:endCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4663440" y="956310"/>
+          <a:ext cx="998220" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>217170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>224790</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="コネクタ: カギ線 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC677223-E3EC-42A3-B866-3330A64F45ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="4"/>
+          <a:endCxn id="5" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4648200" y="2731770"/>
+          <a:ext cx="1021080" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>483870</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="コネクタ: カギ線 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AD7C1CF-3640-4364-A2E3-9BF3A1B6BBA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="1"/>
+          <a:endCxn id="3" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6511290" y="1493520"/>
+          <a:ext cx="7620" cy="701040"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>217170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="コネクタ: カギ線 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F441F74C-B039-4828-8152-1E26AC1FF77A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="5" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7368540" y="2731770"/>
+          <a:ext cx="1051560" cy="1623060"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>217170</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="コネクタ: カギ線 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F94E6047-E50B-411E-A463-718D493B3C4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="5" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7368540" y="2724150"/>
+          <a:ext cx="1066800" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="コネクタ: カギ線 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F527616C-9A8C-4341-8389-43808C9DBA22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="4"/>
+          <a:endCxn id="6" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7368540" y="4354830"/>
+          <a:ext cx="1051560" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>217170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="コネクタ: カギ線 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F567F4E1-F079-49E6-BB68-85B76C4C7344}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="4"/>
+          <a:endCxn id="5" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4632960" y="2731770"/>
+          <a:ext cx="1036320" cy="1630680"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A297837-C19A-4704-A27C-E2D49E0B4484}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5364480" y="838200"/>
+          <a:ext cx="342900" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>N</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBEFBEB1-BD6D-4F08-8CD8-20F4D6D5BB9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5364480" y="2621280"/>
+          <a:ext cx="342900" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>N</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7443D7B-66BF-4A57-BBA8-823396E14F1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8145780" y="4229100"/>
+          <a:ext cx="342900" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>N</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FFBE524-873A-45E0-94E6-7AA2E505ABFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8206740" y="2583180"/>
+          <a:ext cx="342900" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>N</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DFA65C1-2341-4E36-97BF-8240EF20BEB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6339840" y="1363980"/>
+          <a:ext cx="342900" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>N</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4B0A3FD-AA52-4B16-9B97-4E822C61CDB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6339840" y="2072640"/>
+          <a:ext cx="342900" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>N</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7879,150 +9632,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD28500F-5B72-40BB-881B-838D1797078C}">
-  <dimension ref="B2:B30"/>
+  <dimension ref="B1:F18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3.09765625" customWidth="1"/>
+    <col min="2" max="2" width="2.59765625" customWidth="1"/>
+    <col min="3" max="4" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>23</v>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>66</v>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C15" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B9" s="1" t="s">
-        <v>3</v>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>4</v>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B30" t="s">
-        <v>21</v>
-      </c>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43517B6E-BE7D-4F58-A2F9-460A68CF8EBC}">
-  <dimension ref="B2:N139"/>
+  <dimension ref="B2:N136"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K155" sqref="K155"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -8032,107 +9775,97 @@
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.45">
       <c r="K5" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.45">
       <c r="K6" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.45">
       <c r="K7" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.45">
       <c r="K8" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.45">
       <c r="K9" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.45">
       <c r="K10" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.45">
       <c r="K11" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.45">
       <c r="K12" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.45">
       <c r="K13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="K14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="K15" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.45">
       <c r="N17" s="1" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.45">
       <c r="N18" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.45">
       <c r="K31" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.45">
       <c r="K32" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="11:11" x14ac:dyDescent="0.45">
       <c r="K33" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B65" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B111" s="1" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B139" s="1" t="s">
-        <v>69</v>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B136" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -8144,232 +9877,63 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA34FD8-6299-4C0C-9D55-2ECDC0A60BF3}">
-  <dimension ref="B2:Q42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2007B8DF-F698-42F5-ABFB-EF3D050184E1}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B96E8C6-C50C-4CA3-83A0-C49DDFB4EF98}">
+  <dimension ref="N3:N9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.09765625" customWidth="1"/>
-    <col min="2" max="2" width="3.59765625" customWidth="1"/>
-    <col min="3" max="3" width="10.8984375" customWidth="1"/>
+    <col min="1" max="1" width="2.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s">
-        <v>91</v>
+    <row r="3" spans="14:14" x14ac:dyDescent="0.45">
+      <c r="N3" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>83</v>
+    <row r="4" spans="14:14" x14ac:dyDescent="0.45">
+      <c r="N4" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>85</v>
+    <row r="5" spans="14:14" x14ac:dyDescent="0.45">
+      <c r="N5" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>84</v>
+    <row r="6" spans="14:14" x14ac:dyDescent="0.45">
+      <c r="N6" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="Q6" t="s">
-        <v>86</v>
+    <row r="7" spans="14:14" x14ac:dyDescent="0.45">
+      <c r="N7" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>94</v>
+    <row r="8" spans="14:14" x14ac:dyDescent="0.45">
+      <c r="N8" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="C13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="C16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B32" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C35" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B38" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C40" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C41" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C42" t="s">
-        <v>48</v>
+    <row r="9" spans="14:14" x14ac:dyDescent="0.45">
+      <c r="N9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -8380,87 +9944,541 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29FD20E-DFDF-40BA-9461-9CA9221DDD27}">
-  <dimension ref="B2:B15"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91207D97-C319-4C4B-B8C2-6E279775581C}">
+  <dimension ref="B1:F48"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.09765625" customWidth="1"/>
+    <col min="1" max="1" width="1.69921875" customWidth="1"/>
+    <col min="2" max="2" width="17.296875" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="7.2" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B13" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B17" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B21" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B28" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B32" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B36" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B38" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B39" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B40" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B41" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B43" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B44" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B45" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B46" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B48" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85ABA466-A939-4A0F-B37F-91A9E323145B}">
+  <dimension ref="B2:B6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>33</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B5" s="1" t="s">
-        <v>44</v>
+      <c r="B5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B11" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B14" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2007B8DF-F698-42F5-ABFB-EF3D050184E1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/要件、設計.xlsx
+++ b/要件、設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frontier-Python\Desktop\Django\RecipeProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C38FCEE-043C-4878-A8FB-E068A044FE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC37828-A083-4502-AB13-FC5486F790D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{71928E78-3A24-4604-82A5-23F5281697AB}"/>
   </bookViews>
@@ -18,7 +18,8 @@
     <sheet name="フローチャート" sheetId="8" r:id="rId3"/>
     <sheet name="ER図" sheetId="10" r:id="rId4"/>
     <sheet name="DB一覧" sheetId="9" r:id="rId5"/>
-    <sheet name="感想" sheetId="12" r:id="rId6"/>
+    <sheet name="フォルダ構成" sheetId="13" r:id="rId6"/>
+    <sheet name="感想" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="209">
   <si>
     <t>目的</t>
     <rPh sb="0" eb="2">
@@ -879,6 +880,606 @@
     </rPh>
     <rPh sb="43" eb="44">
       <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RecipeProject</t>
+  </si>
+  <si>
+    <t>recipe_app</t>
+  </si>
+  <si>
+    <t>manage.py</t>
+  </si>
+  <si>
+    <t>コマンドラインユーティリティ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">要件、設計.xlsx </t>
+  </si>
+  <si>
+    <t xml:space="preserve">db.sqlite3 </t>
+  </si>
+  <si>
+    <t>起動.txt</t>
+  </si>
+  <si>
+    <t>DBスキーマ、データ、履歴</t>
+    <rPh sb="11" eb="13">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">wsgi.py </t>
+  </si>
+  <si>
+    <t xml:space="preserve">__init__.py </t>
+  </si>
+  <si>
+    <t xml:space="preserve">asgi.py </t>
+  </si>
+  <si>
+    <t xml:space="preserve">settings.py </t>
+  </si>
+  <si>
+    <t>urls.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin.py </t>
+  </si>
+  <si>
+    <t xml:space="preserve">apps.py </t>
+  </si>
+  <si>
+    <t xml:space="preserve">constant.py </t>
+  </si>
+  <si>
+    <t xml:space="preserve">favorite_flg_add_or_delete.py </t>
+  </si>
+  <si>
+    <t xml:space="preserve">forms.py </t>
+  </si>
+  <si>
+    <t xml:space="preserve">get_recipe.py </t>
+  </si>
+  <si>
+    <t xml:space="preserve">models.py </t>
+  </si>
+  <si>
+    <t xml:space="preserve">scraper.py </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tests.py </t>
+  </si>
+  <si>
+    <t xml:space="preserve">urls.py </t>
+  </si>
+  <si>
+    <t xml:space="preserve">views.py </t>
+  </si>
+  <si>
+    <t>templates /</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>static /</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>migrations /</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>__pycache__ /</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第1階層</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第2階層</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第3階層</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第4階層</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第5階層</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補足</t>
+    <rPh sb="0" eb="2">
+      <t>ホソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">xxx.pyc </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行ファイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xxx.pyc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>__init__.py</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定ファイル</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォルダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xxx.py</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイグレーションファイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recipe_app /</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>css /</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images /</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>js /</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>style.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xxx.webp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタイルシート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>favorite.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お気に入りボタン制御</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>favorite_button.html</t>
+  </si>
+  <si>
+    <t>head.html</t>
+  </si>
+  <si>
+    <t>header.html</t>
+  </si>
+  <si>
+    <t>index.html</t>
+  </si>
+  <si>
+    <t>login.html</t>
+  </si>
+  <si>
+    <t>recipe_detail.html</t>
+  </si>
+  <si>
+    <t>recipe_list.html</t>
+  </si>
+  <si>
+    <t>scraping.html</t>
+  </si>
+  <si>
+    <t>signup.html</t>
+  </si>
+  <si>
+    <t>共通：お気に入りボタン</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通：ヘッド</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通：ヘッダー</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面：ホーム</t>
+  </si>
+  <si>
+    <t>画面：ログイン</t>
+  </si>
+  <si>
+    <t>画面：作り方</t>
+  </si>
+  <si>
+    <t>画面：レシピ一覧</t>
+  </si>
+  <si>
+    <t>画面：スクレイピング</t>
+  </si>
+  <si>
+    <t>画面：新規登録</t>
+  </si>
+  <si>
+    <t>プロジェクトをPythonパッケージとして認識させる空ファイル</t>
+    <rPh sb="26" eb="27">
+      <t>カラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリをPythonパッケージとして認識させる空ファイル</t>
+    <rPh sb="23" eb="24">
+      <t>カラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト全体のURLルーティング設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクトの設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ASGI設定（非同期サーバーゲートウェイインターフェース用）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WSGI設定ファイル（同期サーバーゲートウェイインターフェース用）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理サイト用設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーション設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースモデル定義</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストケース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーション内のURLルーティング設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビュー関数やクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定数の設定</t>
+    <rPh sb="0" eb="2">
+      <t>テイスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お気に入りの追加／削除処理</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォームの設定</t>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBよりレシピの取得処理</t>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクレイピングに関する処理</t>
+    <rPh sb="8" eb="9">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Webサーバの起動コマンド</t>
+    <rPh sb="7" eb="9">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクレイピング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義、画面設計など</t>
+    <rPh sb="0" eb="4">
+      <t>ヨウケンテイギ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクレイピング条件</t>
+    <rPh sb="7" eb="9">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・主菜、副菜、汁物、デザートを表示</t>
+    <rPh sb="2" eb="4">
+      <t>シュサイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フクサイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シルモノ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・ログインユーザに紐づくレシピを表示</t>
+    <rPh sb="10" eb="11">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・お気に入りの有無を表示</t>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・再読み込みで表示内容を更新</t>
+    <rPh sb="2" eb="4">
+      <t>サイヨ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・主菜、副菜、汁物、デザートタブで切り替え</t>
+    <rPh sb="2" eb="4">
+      <t>シュサイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フクサイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シルモノ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・ページネーションで次の６件を表示</t>
+    <rPh sb="11" eb="12">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・タブ切り替え、ページネーション遷移では再読み込みを行わない</t>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サイヨ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・お気に入りボタン押下でブラウザの再読み込みは行わない</t>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サイヨ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・DBよりランダムに表示（DBはお気に入り＋スクレイピングした30件）</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ケン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -931,7 +1532,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -944,8 +1545,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5FEE8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -968,13 +1575,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -993,12 +1645,45 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF5FEE8"/>
+      <color rgb="FFE9F2FB"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3618,7 +4303,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>177387</xdr:rowOff>
+      <xdr:rowOff>177388</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4379,14 +5064,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>160351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>46052</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4401,15 +5086,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6248400" y="13700760"/>
-          <a:ext cx="1394460" cy="342900"/>
+          <a:off x="6113228" y="13525168"/>
+          <a:ext cx="1390484" cy="349527"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj1" fmla="val 54769"/>
             <a:gd name="adj2" fmla="val -8333"/>
-            <a:gd name="adj3" fmla="val 48056"/>
-            <a:gd name="adj4" fmla="val -78133"/>
+            <a:gd name="adj3" fmla="val 123885"/>
+            <a:gd name="adj4" fmla="val -76703"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -4613,6 +5298,14 @@
         <a:prstGeom prst="star5">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4643,16 +5336,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>33462</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>210379</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>611257</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>96079</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4667,15 +5360,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6271260" y="3619500"/>
-          <a:ext cx="1920240" cy="342900"/>
+          <a:off x="6175845" y="2443370"/>
+          <a:ext cx="1916264" cy="349526"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
             <a:gd name="adj1" fmla="val 18750"/>
             <a:gd name="adj2" fmla="val -8333"/>
-            <a:gd name="adj3" fmla="val -585277"/>
-            <a:gd name="adj4" fmla="val -86349"/>
+            <a:gd name="adj3" fmla="val -251628"/>
+            <a:gd name="adj4" fmla="val -87041"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -4739,6 +5432,14 @@
         <a:prstGeom prst="star5">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4799,6 +5500,14 @@
         <a:prstGeom prst="star5">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4859,6 +5568,14 @@
         <a:prstGeom prst="star5">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4889,16 +5606,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>554935</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>214022</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>67255</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>105295</xdr:rowOff>
+      <xdr:rowOff>151677</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4913,12 +5630,20 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5433060" y="6797040"/>
-          <a:ext cx="182880" cy="166255"/>
+          <a:off x="2681909" y="6853361"/>
+          <a:ext cx="181555" cy="169568"/>
         </a:xfrm>
         <a:prstGeom prst="star5">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4950,15 +5675,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:colOff>61954</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>159689</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>44335</xdr:rowOff>
+      <xdr:colOff>244834</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>97344</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4973,12 +5698,20 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5311140" y="14965680"/>
-          <a:ext cx="182880" cy="166255"/>
+          <a:off x="4865867" y="15843637"/>
+          <a:ext cx="182880" cy="169568"/>
         </a:xfrm>
         <a:prstGeom prst="star5">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -5010,15 +5743,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>47708</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>200770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:colOff>626828</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>86470</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5033,15 +5766,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6339840" y="8168640"/>
-          <a:ext cx="1920240" cy="342900"/>
+          <a:off x="6190091" y="9159240"/>
+          <a:ext cx="1917589" cy="349526"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
             <a:gd name="adj1" fmla="val 18750"/>
             <a:gd name="adj2" fmla="val -8333"/>
-            <a:gd name="adj3" fmla="val -365277"/>
-            <a:gd name="adj4" fmla="val -40317"/>
+            <a:gd name="adj3" fmla="val 38514"/>
+            <a:gd name="adj4" fmla="val -37898"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -5075,16 +5808,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>648363</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>81501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>556923</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>195801</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5099,15 +5832,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6423660" y="15102840"/>
-          <a:ext cx="1920240" cy="342900"/>
+          <a:off x="6121511" y="15765449"/>
+          <a:ext cx="1916264" cy="346213"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
             <a:gd name="adj1" fmla="val 18750"/>
             <a:gd name="adj2" fmla="val -8333"/>
-            <a:gd name="adj3" fmla="val -833"/>
-            <a:gd name="adj4" fmla="val -53412"/>
+            <a:gd name="adj3" fmla="val 56583"/>
+            <a:gd name="adj4" fmla="val -57216"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -5142,15 +5875,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>54996</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>88127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:colOff>634116</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5165,15 +5898,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6294120" y="6111240"/>
-          <a:ext cx="1920240" cy="342900"/>
+          <a:off x="6197379" y="6727466"/>
+          <a:ext cx="1917589" cy="349526"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
             <a:gd name="adj1" fmla="val 18750"/>
             <a:gd name="adj2" fmla="val -8333"/>
-            <a:gd name="adj3" fmla="val 72500"/>
-            <a:gd name="adj4" fmla="val -171666"/>
+            <a:gd name="adj3" fmla="val -46932"/>
+            <a:gd name="adj4" fmla="val -56946"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -5270,66 +6003,6 @@
             </a:rPr>
             <a:t>ホームへ　⇒</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>135775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="星: 5 pt 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B29A800-BB19-3B44-1BB2-DE716915336E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2781300" y="6827520"/>
-          <a:ext cx="182880" cy="166255"/>
-        </a:xfrm>
-        <a:prstGeom prst="star5">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5525,7 +6198,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>675</xdr:colOff>
       <xdr:row>151</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
+      <xdr:rowOff>205741</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5774,6 +6447,1250 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>128877</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>335279</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>46383</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="正方形/長方形 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13B45B00-4BAB-6DBC-A502-EC1D544B6C99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="481385" y="36307312"/>
+          <a:ext cx="5452937" cy="2004723"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>337931</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>655983</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>212923</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="図 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{320473D8-7FDA-47D7-D68D-E4CACC5A14B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="583096" y="36562748"/>
+          <a:ext cx="5002695" cy="1683914"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>15239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>184807</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="星: 5 pt 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{100D81DE-9EC0-095F-7597-353746F3A1F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5299213" y="9205622"/>
+          <a:ext cx="181555" cy="169568"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>1987</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171555</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="星: 5 pt 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6427D279-DEFE-9F59-6F42-13AD432E526C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5299213" y="11511500"/>
+          <a:ext cx="181555" cy="169568"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>627822</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>1987</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>140142</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171555</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="星: 5 pt 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF148E95-876D-75C8-CAFD-819EB1C8AB53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2754796" y="11511500"/>
+          <a:ext cx="181555" cy="169568"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>607944</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>15239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>120264</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>184807</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="星: 5 pt 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B316BD49-D8A2-AD7D-A018-D2633692FADA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2734918" y="9205622"/>
+          <a:ext cx="181555" cy="169568"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>118547</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="星: 5 pt 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B45AA347-07C6-1382-3862-FFB74795C960}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5299213" y="6820231"/>
+          <a:ext cx="181555" cy="169568"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>636105</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>6626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>614570</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>124239</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="吹き出し: 線 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5E5DE90-4F4B-4B22-9EA3-C31A93DEA2A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6109253" y="14067183"/>
+          <a:ext cx="3324639" cy="349526"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50977"/>
+            <a:gd name="adj2" fmla="val -5742"/>
+            <a:gd name="adj3" fmla="val 76429"/>
+            <a:gd name="adj4" fmla="val -23771"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>リンク：「ホーム」ページへ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>628485</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>48370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>537045</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>162670</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="吹き出し: 線 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{685D02A3-123B-492D-AB2B-AF0351B3B84E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6101633" y="15268492"/>
+          <a:ext cx="1916264" cy="346213"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 52756"/>
+            <a:gd name="adj4" fmla="val -55141"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>レシピ名</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>669234</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>159026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>331304</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="吹き出し: 線 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0B69890-0266-48A8-A7DC-BABE321C67F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6142382" y="19553583"/>
+          <a:ext cx="1000539" cy="346213"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 94862"/>
+            <a:gd name="adj4" fmla="val -84811"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>材料</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>669234</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>99392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>331304</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>213692</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="吹き出し: 線 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FBD5E49-1C30-A764-7FFA-5BD1A873B6FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6142382" y="18798209"/>
+          <a:ext cx="1000539" cy="346213"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 96775"/>
+            <a:gd name="adj4" fmla="val -456996"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>食数</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>125895</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>178905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>61292</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="吹き出し: 線 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EEEC4B8-ABE6-724F-D0AD-E323CE7A3D87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6268278" y="21892592"/>
+          <a:ext cx="1000539" cy="346213"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 94862"/>
+            <a:gd name="adj4" fmla="val -84811"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>作り方</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>106016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>223629</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="吹き出し: 線 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{856C29DC-5B69-48CB-9F0B-6001956027E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6142383" y="27153703"/>
+          <a:ext cx="3324639" cy="349526"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50977"/>
+            <a:gd name="adj2" fmla="val -5742"/>
+            <a:gd name="adj3" fmla="val 76429"/>
+            <a:gd name="adj4" fmla="val -49880"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>入力フォーム：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>119268</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>4968</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="吹き出し: 線 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C450ABFB-6242-469F-9C10-75D4F1115C7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6142383" y="27630781"/>
+          <a:ext cx="3324639" cy="349526"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 106761"/>
+            <a:gd name="adj4" fmla="val -49282"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>入力フォーム：パスワード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>185529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>71229</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="吹き出し: 線 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42809EE7-96D9-3B6B-77D8-22433B39409C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6142383" y="28392781"/>
+          <a:ext cx="3324639" cy="349526"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 106761"/>
+            <a:gd name="adj4" fmla="val -49282"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログイン判定処理の実行</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>145773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>31473</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="吹き出し: 線 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BCECC5D-50E1-9ECD-9542-78F3BB4D38C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6142383" y="29512590"/>
+          <a:ext cx="3324639" cy="349526"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 131405"/>
+            <a:gd name="adj4" fmla="val -72401"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>リンク：新規登録画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>72885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>190498</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="吹き出し: 線 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DB63565-7E57-D878-049B-36AB81EB2370}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6142383" y="32918398"/>
+          <a:ext cx="3324639" cy="349526"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50977"/>
+            <a:gd name="adj2" fmla="val -5742"/>
+            <a:gd name="adj3" fmla="val 76429"/>
+            <a:gd name="adj4" fmla="val -49880"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>入力フォーム：名前</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>86137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>203750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="吹き出し: 線 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54CC3016-6F34-D8C9-45FE-0ECBACE319A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6142383" y="33395476"/>
+          <a:ext cx="3324639" cy="349526"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 106761"/>
+            <a:gd name="adj4" fmla="val -49282"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>入力フォーム：パスワード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>225285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>110985</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="吹き出し: 線 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54E3F842-8417-397E-7F6C-77B207DD00A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6142383" y="34230363"/>
+          <a:ext cx="3324639" cy="349526"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 97282"/>
+            <a:gd name="adj4" fmla="val -89342"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>新規登録処理の実行（登録後はログイン画面へ）</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7974,14 +9891,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>53925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7996,8 +9913,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2941320" y="426720"/>
-          <a:ext cx="1722120" cy="1074420"/>
+          <a:off x="464234" y="177400"/>
+          <a:ext cx="1717431" cy="1476725"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst/>
@@ -8048,14 +9965,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>169780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>46305</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8070,8 +9987,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5661660" y="419100"/>
-          <a:ext cx="1699260" cy="1074420"/>
+          <a:off x="3175195" y="169780"/>
+          <a:ext cx="1694571" cy="1476725"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst/>
@@ -8106,13 +10023,35 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>外部キー：ユーザー</a:t>
+            <a:t>複合キー：ユーザー</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>ID</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>複合キー：レシピ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>＿</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8122,14 +10061,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>59583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>624840</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>164708</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8144,8 +10083,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2948940" y="2202180"/>
-          <a:ext cx="1699260" cy="1074420"/>
+          <a:off x="471854" y="1888383"/>
+          <a:ext cx="1694571" cy="1476725"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst/>
@@ -8195,15 +10134,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>298938</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>51963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
+      <xdr:colOff>657078</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>157088</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8218,8 +10157,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5669280" y="2194560"/>
-          <a:ext cx="1699260" cy="1074420"/>
+          <a:off x="3176953" y="1880763"/>
+          <a:ext cx="1694571" cy="1476725"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst/>
@@ -8270,14 +10209,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>215500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>92025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8292,8 +10231,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8420100" y="3817620"/>
-          <a:ext cx="1699260" cy="1074420"/>
+          <a:off x="5924257" y="3644500"/>
+          <a:ext cx="1692226" cy="1476725"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst/>
@@ -8344,14 +10283,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>44343</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>149468</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8366,8 +10305,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8435340" y="2186940"/>
-          <a:ext cx="1699260" cy="1074420"/>
+          <a:off x="5939497" y="1873143"/>
+          <a:ext cx="1692226" cy="1476725"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst/>
@@ -8418,14 +10357,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>223120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>99645</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8440,8 +10379,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5669280" y="3825240"/>
-          <a:ext cx="1699260" cy="1074420"/>
+          <a:off x="3182815" y="3652120"/>
+          <a:ext cx="1694571" cy="1476725"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst/>
@@ -8492,14 +10431,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>223120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>99645</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8514,8 +10453,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2933700" y="3825240"/>
-          <a:ext cx="1699260" cy="1074420"/>
+          <a:off x="456614" y="3652120"/>
+          <a:ext cx="1694571" cy="1476725"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst/>
@@ -8561,14 +10500,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>222343</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>297180</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:rowOff>1363</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8586,8 +10525,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4663440" y="956310"/>
-          <a:ext cx="998220" cy="7620"/>
+          <a:off x="2181665" y="908143"/>
+          <a:ext cx="993530" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8615,13 +10554,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>624840</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>217170</xdr:rowOff>
+      <xdr:rowOff>104526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>298938</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>224790</xdr:rowOff>
+      <xdr:rowOff>112146</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8639,8 +10578,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4648200" y="2731770"/>
-          <a:ext cx="1021080" cy="7620"/>
+          <a:off x="2166425" y="2619126"/>
+          <a:ext cx="1010528" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8667,14 +10606,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>46305</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>483870</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>478008</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>51963</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8692,8 +10631,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="6511290" y="1493520"/>
-          <a:ext cx="7620" cy="701040"/>
+          <a:off x="4022481" y="1646505"/>
+          <a:ext cx="1758" cy="234258"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8719,15 +10658,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
+      <xdr:colOff>657078</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>217170</xdr:rowOff>
+      <xdr:rowOff>104526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>373380</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:rowOff>39463</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8745,8 +10684,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="7368540" y="2731770"/>
-          <a:ext cx="1051560" cy="1623060"/>
+          <a:off x="4871524" y="2619126"/>
+          <a:ext cx="1052733" cy="1763737"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8772,15 +10711,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
+      <xdr:colOff>657078</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:rowOff>96906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>217170</xdr:rowOff>
+      <xdr:rowOff>104526</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8798,8 +10737,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7368540" y="2724150"/>
-          <a:ext cx="1066800" cy="7620"/>
+          <a:off x="4871524" y="2611506"/>
+          <a:ext cx="1067973" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8827,13 +10766,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>662940</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:rowOff>39463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>373380</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>47083</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8851,8 +10790,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7368540" y="4354830"/>
-          <a:ext cx="1051560" cy="7620"/>
+          <a:off x="4877386" y="4382863"/>
+          <a:ext cx="1046871" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8880,13 +10819,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>217170</xdr:rowOff>
+      <xdr:rowOff>104526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>298938</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>47083</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8904,8 +10843,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4632960" y="2731770"/>
-          <a:ext cx="1036320" cy="1630680"/>
+          <a:off x="2151185" y="2619126"/>
+          <a:ext cx="1025768" cy="1771357"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8931,15 +10870,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>87923</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>117230</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>352278</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
+      <xdr:rowOff>111863</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8954,8 +10893,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5364480" y="838200"/>
-          <a:ext cx="342900" cy="289560"/>
+          <a:off x="2965938" y="803030"/>
+          <a:ext cx="264355" cy="223233"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8995,15 +10934,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>105507</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>53926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>369862</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>48559</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9018,8 +10957,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5364480" y="2621280"/>
-          <a:ext cx="342900" cy="289560"/>
+          <a:off x="2983522" y="2568526"/>
+          <a:ext cx="264355" cy="223233"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9059,15 +10998,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
+      <xdr:colOff>145952</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>161192</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
+      <xdr:colOff>410307</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>155825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9082,8 +11021,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8145780" y="4229100"/>
-          <a:ext cx="342900" cy="289560"/>
+          <a:off x="5696829" y="4275992"/>
+          <a:ext cx="264355" cy="223233"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9123,15 +11062,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
+      <xdr:colOff>206912</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>39272</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
+      <xdr:colOff>471267</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>33905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9146,8 +11085,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8206740" y="2583180"/>
-          <a:ext cx="342900" cy="289560"/>
+          <a:off x="5757789" y="2553872"/>
+          <a:ext cx="264355" cy="223233"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9187,15 +11126,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
+      <xdr:colOff>339969</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>115472</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:colOff>604324</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>110105</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9210,8 +11149,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6339840" y="1363980"/>
-          <a:ext cx="342900" cy="289560"/>
+          <a:off x="3886200" y="1487072"/>
+          <a:ext cx="264355" cy="223233"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9251,15 +11190,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>345831</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>610186</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>33320</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9274,8 +11213,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6339840" y="2072640"/>
-          <a:ext cx="342900" cy="289560"/>
+          <a:off x="3892062" y="1867487"/>
+          <a:ext cx="264355" cy="223233"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9763,16 +11702,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43517B6E-BE7D-4F58-A2F9-460A68CF8EBC}">
-  <dimension ref="B2:N136"/>
+  <dimension ref="B1:K166"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.19921875" customWidth="1"/>
+    <col min="1" max="1" width="1.59765625" customWidth="1"/>
     <col min="2" max="2" width="8.796875" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:11" ht="11.4" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -9785,72 +11725,77 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.45">
       <c r="K6" t="s">
-        <v>8</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.45">
       <c r="K7" t="s">
-        <v>17</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.45">
       <c r="K8" t="s">
-        <v>18</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.45">
       <c r="K9" t="s">
-        <v>19</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.45">
       <c r="K10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="K11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="K12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="K13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="N17" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="K14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="N18" t="s">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="K15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="K16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="K31" t="s">
+    <row r="33" spans="11:11" x14ac:dyDescent="0.45">
+      <c r="K33" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="K32" t="s">
+    <row r="34" spans="11:11" x14ac:dyDescent="0.45">
+      <c r="K34" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="11:11" x14ac:dyDescent="0.45">
+      <c r="K35" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.45">
-      <c r="K33" t="s">
+    <row r="36" spans="11:11" x14ac:dyDescent="0.45">
+      <c r="K36" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="11:11" x14ac:dyDescent="0.45">
+      <c r="K37" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="11:11" x14ac:dyDescent="0.45">
+      <c r="K38" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.45">
@@ -9866,6 +11811,56 @@
     <row r="136" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B136" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="156" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B156" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="158" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="K158" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="159" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="K159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="K160" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161" spans="11:11" x14ac:dyDescent="0.45">
+      <c r="K161" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="11:11" x14ac:dyDescent="0.45">
+      <c r="K162" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="163" spans="11:11" x14ac:dyDescent="0.45">
+      <c r="K163" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164" spans="11:11" x14ac:dyDescent="0.45">
+      <c r="K164" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="165" spans="11:11" x14ac:dyDescent="0.45">
+      <c r="K165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="11:11" x14ac:dyDescent="0.45">
+      <c r="K166" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -9899,6 +11894,7 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.69921875" customWidth="1"/>
+    <col min="13" max="13" width="4.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="14:14" x14ac:dyDescent="0.45">
@@ -10441,6 +12437,727 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A1CA37-B545-4E95-A382-3944B1487F65}">
+  <dimension ref="B1:K40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" outlineLevelCol="1" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.796875" customWidth="1"/>
+    <col min="2" max="2" width="15.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.59765625" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="29.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.8984375" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="14.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.296875" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="20.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="10.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.3984375" customWidth="1" outlineLevel="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B2" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B3" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B4" s="12"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B5" s="12"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B6" s="12"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B7" s="12"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B8" s="13"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B9" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B10" s="12"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B11" s="12"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B12" s="12"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B13" s="12"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B14" s="12"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B15" s="12"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B16" s="12"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B17" s="12"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J17" s="12"/>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B18" s="12"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B19" s="12"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="J19" s="12"/>
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B20" s="12"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B21" s="12"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="J21" s="12"/>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B22" s="12"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J22" s="12"/>
+      <c r="K22" s="8"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B23" s="12"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="J23" s="12"/>
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B24" s="12"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="J24" s="12"/>
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B25" s="12"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="8"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B26" s="12"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="8"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B27" s="12"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="8"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B28" s="12"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="8"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B29" s="12"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="8"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B30" s="12"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="8"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B31" s="12"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="8"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B32" s="12"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="8"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B33" s="12"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="8"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B34" s="12"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="8"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B35" s="12"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="8"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B36" s="13"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="F36" s="13"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="9"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B37" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B38" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B39" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D39" s="14"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="4"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B40" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85ABA466-A939-4A0F-B37F-91A9E323145B}">
   <dimension ref="B2:B6"/>
   <sheetViews>
